--- a/AmazonCreateTemplateFile/bin/Debug/MapCategory.xlsx
+++ b/AmazonCreateTemplateFile/bin/Debug/MapCategory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectDev\AmazonCreateTemplateFile\AmazonCreateTemplateFile\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDCC08B-9404-4F56-961C-56EFA499657B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174634CA-3789-4B91-9EB5-3A93A3B92EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -376,7 +376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -491,21 +491,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -551,11 +536,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -915,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,16 +912,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -985,13 +967,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A number with up to 10 digits to the left of the decimal point and 2 digits to the right of the decimal point. Please do not use commas." sqref="C13:D13 C1:D1" xr:uid="{F730DB36-A79D-4895-9174-18C7A5CCB195}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="A number with up to 10 digits to the left of the decimal point and 2 digits to the right of the decimal point. Please do not use commas." sqref="C1:D1" xr:uid="{F730DB36-A79D-4895-9174-18C7A5CCB195}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
